--- a/2시10분/대사집/5장 대사 엑셀 서술.xlsx
+++ b/2시10분/대사집/5장 대사 엑셀 서술.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\DOCUME~1\카카오~1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/c0248/Desktop/프로젝트/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1650F879-6DB4-494E-B42F-30172D82E23D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B69988-867F-474E-BE8F-86D16DC482D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="220" yWindow="1440" windowWidth="23260" windowHeight="13180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -259,10 +259,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>나는 아비게일 부인과 올리비아 부인을 만나기 위해 아비게일 부인의 집에서 열리는 뜨개질 클래스에 나갔다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>올리비아</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -272,6 +268,10 @@
   </si>
   <si>
     <t>버스 안에서 멍하니 창 밖을 바라보던 중 올리비이아 부인이 말했던 산책로가 보였다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다음날 나는 또다른 용의자인 아비게일 부인과 올리비아 부인을 만나기 위해 아비게일 부인의 집에서 열리는 뜨개질 클래스에 나갔다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -675,14 +675,12 @@
   <dimension ref="A1:B72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="60" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="1"/>
+    <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -693,34 +691,34 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="94.5">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:2">
+      <c r="A2" s="4"/>
+      <c r="B2" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="112">
+      <c r="A3" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B5" s="3" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="4"/>
-      <c r="B5" s="3" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -729,7 +727,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="94.5">
+    <row r="7" spans="1:2" ht="112">
       <c r="A7" s="4"/>
       <c r="B7" s="2" t="s">
         <v>4</v>
@@ -801,7 +799,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>9</v>
@@ -809,7 +807,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>10</v>
@@ -833,7 +831,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>37</v>
@@ -841,7 +839,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>60</v>
@@ -849,7 +847,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>38</v>
@@ -857,7 +855,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>11</v>
@@ -865,7 +863,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>12</v>
@@ -881,7 +879,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>13</v>
@@ -897,7 +895,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>39</v>
@@ -969,7 +967,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>23</v>
@@ -977,7 +975,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>24</v>
@@ -985,7 +983,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>25</v>
@@ -1064,10 +1062,10 @@
         <v>42</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="121.5">
+    <row r="56" spans="1:2" ht="144">
       <c r="A56" s="4"/>
       <c r="B56" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1083,7 +1081,7 @@
         <v>29</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1140,7 +1138,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="81">
+    <row r="70" spans="1:2" ht="96">
       <c r="A70" s="1" t="s">
         <v>29</v>
       </c>
